--- a/public/Daftar Sampah.xlsx
+++ b/public/Daftar Sampah.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>No</t>
   </si>
@@ -32,16 +32,76 @@
     <t>Harga Nasabah</t>
   </si>
   <si>
-    <t>kertas</t>
-  </si>
-  <si>
-    <t>2023-06-06</t>
-  </si>
-  <si>
-    <t>botol</t>
-  </si>
-  <si>
-    <t>2023-08-08</t>
+    <t>Kardus</t>
+  </si>
+  <si>
+    <t>2023-12-20</t>
+  </si>
+  <si>
+    <t>HVS</t>
+  </si>
+  <si>
+    <t>Buku Tulis</t>
+  </si>
+  <si>
+    <t>Koran Bagus</t>
+  </si>
+  <si>
+    <t>Koran BS</t>
+  </si>
+  <si>
+    <t>Duplek</t>
+  </si>
+  <si>
+    <t>Kertas Burem/LKS</t>
+  </si>
+  <si>
+    <t>Besi</t>
+  </si>
+  <si>
+    <t>Kaleng</t>
+  </si>
+  <si>
+    <t>Emberan</t>
+  </si>
+  <si>
+    <t>Plastik Kerasan</t>
+  </si>
+  <si>
+    <t>Alumunium</t>
+  </si>
+  <si>
+    <t>Seng</t>
+  </si>
+  <si>
+    <t>TV 14/17/21 Inc</t>
+  </si>
+  <si>
+    <t>TV 29 Inc</t>
+  </si>
+  <si>
+    <t>Kulkas 1 Pintu</t>
+  </si>
+  <si>
+    <t>Kulkas 2 Pintu</t>
+  </si>
+  <si>
+    <t>Kipas</t>
+  </si>
+  <si>
+    <t>Aki Mobil</t>
+  </si>
+  <si>
+    <t>Aki Motor</t>
+  </si>
+  <si>
+    <t>Botol Beling</t>
+  </si>
+  <si>
+    <t>Styrofoam</t>
+  </si>
+  <si>
+    <t>Galon</t>
   </si>
 </sst>
 </file>
@@ -381,7 +441,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -417,10 +477,10 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="E2">
-        <v>12000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -431,13 +491,370 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2500</v>
+      </c>
+      <c r="E3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+      <c r="E4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>4000</v>
+      </c>
+      <c r="E5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>550</v>
+      </c>
+      <c r="E7">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>2500</v>
+      </c>
+      <c r="E9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>2200</v>
+      </c>
+      <c r="E10">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>2200</v>
+      </c>
+      <c r="E11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>750</v>
+      </c>
+      <c r="E12">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>8000</v>
+      </c>
+      <c r="E13">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>750</v>
+      </c>
+      <c r="E14">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>10000</v>
+      </c>
+      <c r="E15">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>20000</v>
+      </c>
+      <c r="E16">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>80000</v>
+      </c>
+      <c r="E17">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>100000</v>
+      </c>
+      <c r="E18">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>7000</v>
+      </c>
+      <c r="E19">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>8000</v>
+      </c>
+      <c r="E20">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>10000</v>
+      </c>
+      <c r="E21">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>300</v>
+      </c>
+      <c r="E22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
         <v>5000</v>
       </c>
-      <c r="E3">
-        <v>6000</v>
+      <c r="E23">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>5000</v>
+      </c>
+      <c r="E24">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
